--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -13833,7 +13833,7 @@
     <t>https://www.westsuffolk.gov.uk/</t>
   </si>
   <si>
-    <t>https://twitter.com/WestYorkshireCA</t>
+    <t>https://www.westyorks-ca.gov.uk/</t>
   </si>
   <si>
     <t>https://www.westminster.gov.uk/</t>

--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -13839,7 +13839,7 @@
     <t>https://www.westsuffolk.gov.uk/</t>
   </si>
   <si>
-    <t>https://www.westyorks-ca.gov.uk/</t>
+    <t>https://twitter.com/WestYorkshireCA</t>
   </si>
   <si>
     <t>https://www.westminster.gov.uk/</t>

--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -13839,7 +13839,7 @@
     <t>https://www.westsuffolk.gov.uk/</t>
   </si>
   <si>
-    <t>https://twitter.com/WestYorkshireCA</t>
+    <t>https://www.westyorks-ca.gov.uk/</t>
   </si>
   <si>
     <t>https://www.westminster.gov.uk/</t>

--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -13855,7 +13855,7 @@
     <t>https://www.westsuffolk.gov.uk/</t>
   </si>
   <si>
-    <t>https://www.westyorks-ca.gov.uk/</t>
+    <t>https://twitter.com/WestYorkshireCA</t>
   </si>
   <si>
     <t>https://www.westminster.gov.uk/</t>

--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12821" uniqueCount="3912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12826" uniqueCount="3913">
   <si>
     <t>Dataset</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_plans_metadata/0_14_1</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_plans_metadata/0_14_2</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.14.1</t>
+    <t>0.14.2</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -11665,6 +11665,9 @@
   </si>
   <si>
     <t>Strategic Regional Authority</t>
+  </si>
+  <si>
+    <t>YNYC</t>
   </si>
   <si>
     <t>column</t>
@@ -18383,7 +18386,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:35">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -18432,8 +18435,11 @@
       <c r="AG129" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="130" spans="1:34">
+      <c r="AI129" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -18482,8 +18488,11 @@
       <c r="AG130" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="131" spans="1:34">
+      <c r="AI130" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -18532,8 +18541,11 @@
       <c r="AG131" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="132" spans="1:34">
+      <c r="AI131" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -18580,7 +18592,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:35">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -18630,7 +18642,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:35">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -18683,7 +18695,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:34">
+    <row r="135" spans="1:35">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -18736,7 +18748,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:34">
+    <row r="136" spans="1:35">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -18786,7 +18798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:35">
       <c r="A137" t="s">
         <v>124</v>
       </c>
@@ -18836,7 +18848,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="138" spans="1:34">
+    <row r="138" spans="1:35">
       <c r="A138" t="s">
         <v>125</v>
       </c>
@@ -18865,7 +18877,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="139" spans="1:34">
+    <row r="139" spans="1:35">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -18915,7 +18927,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="140" spans="1:34">
+    <row r="140" spans="1:35">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -18965,7 +18977,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="141" spans="1:34">
+    <row r="141" spans="1:35">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -19015,7 +19027,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="142" spans="1:34">
+    <row r="142" spans="1:35">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -19062,7 +19074,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -19112,7 +19124,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="144" spans="1:34">
+    <row r="144" spans="1:35">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -44663,7 +44675,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="705" spans="1:33">
+    <row r="705" spans="1:35">
       <c r="A705" t="s">
         <v>452</v>
       </c>
@@ -44695,7 +44707,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="706" spans="1:33">
+    <row r="706" spans="1:35">
       <c r="A706" t="s">
         <v>453</v>
       </c>
@@ -44733,7 +44745,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="707" spans="1:33">
+    <row r="707" spans="1:35">
       <c r="A707" t="s">
         <v>454</v>
       </c>
@@ -44765,7 +44777,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="708" spans="1:33">
+    <row r="708" spans="1:35">
       <c r="A708" t="s">
         <v>455</v>
       </c>
@@ -44815,7 +44827,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="709" spans="1:33">
+    <row r="709" spans="1:35">
       <c r="A709" t="s">
         <v>456</v>
       </c>
@@ -44844,7 +44856,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="710" spans="1:33">
+    <row r="710" spans="1:35">
       <c r="A710" t="s">
         <v>380</v>
       </c>
@@ -44894,7 +44906,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="711" spans="1:33">
+    <row r="711" spans="1:35">
       <c r="A711" t="s">
         <v>380</v>
       </c>
@@ -44923,7 +44935,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="712" spans="1:33">
+    <row r="712" spans="1:35">
       <c r="A712" t="s">
         <v>457</v>
       </c>
@@ -44970,7 +44982,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="713" spans="1:33">
+    <row r="713" spans="1:35">
       <c r="A713" t="s">
         <v>458</v>
       </c>
@@ -44999,7 +45011,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="714" spans="1:33">
+    <row r="714" spans="1:35">
       <c r="A714" t="s">
         <v>459</v>
       </c>
@@ -45031,7 +45043,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="715" spans="1:33">
+    <row r="715" spans="1:35">
       <c r="A715" t="s">
         <v>460</v>
       </c>
@@ -45063,7 +45075,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="716" spans="1:33">
+    <row r="716" spans="1:35">
       <c r="A716" t="s">
         <v>461</v>
       </c>
@@ -45095,7 +45107,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="717" spans="1:33">
+    <row r="717" spans="1:35">
       <c r="A717" t="s">
         <v>462</v>
       </c>
@@ -45142,7 +45154,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="718" spans="1:33">
+    <row r="718" spans="1:35">
       <c r="A718" t="s">
         <v>463</v>
       </c>
@@ -45170,8 +45182,11 @@
       <c r="AG718" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="719" spans="1:33">
+      <c r="AI718" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="719" spans="1:35">
       <c r="A719" t="s">
         <v>464</v>
       </c>
@@ -45200,7 +45215,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="720" spans="1:33">
+    <row r="720" spans="1:35">
       <c r="A720" t="s">
         <v>465</v>
       </c>
@@ -54902,6 +54917,9 @@
       </c>
       <c r="AG909" t="s">
         <v>3857</v>
+      </c>
+      <c r="AI909" t="s">
+        <v>3865</v>
       </c>
     </row>
     <row r="910" spans="1:35">
@@ -58788,22 +58806,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -58811,16 +58829,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="C2" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -58828,16 +58846,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="C3" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -58845,16 +58863,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="C4" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="E4" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -58862,16 +58880,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="C5" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1750</v>
       </c>
       <c r="E5" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -58879,16 +58897,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="C6" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1861</v>
       </c>
       <c r="E6" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -58896,16 +58914,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="C7" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2368</v>
       </c>
       <c r="E7" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -58913,19 +58931,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="C8" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="E8" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="F8" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -58933,13 +58951,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C9" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E9" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -58947,13 +58965,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="C10" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E10" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -58961,13 +58979,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="C11" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E11" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -58975,13 +58993,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="C12" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E12" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -58989,13 +59007,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="C13" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E13" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -59003,13 +59021,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="C14" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E14" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -59017,13 +59035,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="C15" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E15" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -59031,13 +59049,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="C16" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E16" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -59045,13 +59063,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="C17" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E17" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -59059,13 +59077,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="C18" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E18" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -59073,13 +59091,13 @@
         <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="C19" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E19" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -59087,16 +59105,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="C20" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2578</v>
       </c>
       <c r="E20" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -59104,16 +59122,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="C21" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3369</v>
       </c>
       <c r="E21" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -59121,19 +59139,19 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="C22" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3371</v>
       </c>
       <c r="E22" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="F22" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -59141,16 +59159,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="C23" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3515</v>
       </c>
       <c r="E23" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -59158,16 +59176,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="C24" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -59175,16 +59193,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="C25" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="D25" s="3">
         <v>2226</v>
       </c>
       <c r="E25" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -59192,16 +59210,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="C26" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3795</v>
       </c>
       <c r="E26" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -59209,16 +59227,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="C27" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3819</v>
       </c>
       <c r="E27" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -59226,16 +59244,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="C28" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>464</v>
       </c>
       <c r="E28" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -59243,16 +59261,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="C29" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3822</v>
       </c>
       <c r="E29" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -59260,13 +59278,13 @@
         <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="C30" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E30" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -59274,13 +59292,13 @@
         <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C31" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E31" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -59288,16 +59306,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C32" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3838</v>
       </c>
       <c r="E32" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -59305,16 +59323,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="C33" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>3846</v>
       </c>
       <c r="E33" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -59322,16 +59340,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="C34" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>3861</v>
       </c>
       <c r="E34" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -59339,16 +59357,16 @@
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C35" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -59356,16 +59374,16 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="C36" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
+++ b/docs/data/local_authority_climate_plans_metadata/0/local_authority_climate_plans_metadata.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_plans_metadata/0_19_3</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_plans_metadata/0_19_4</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.19.3</t>
+    <t>0.19.4</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -11701,7 +11701,7 @@
     <t>2022-03-29</t>
   </si>
   <si>
-    <t>2024-07-03</t>
+    <t>2024-07-24</t>
   </si>
   <si>
     <t>2024-03-13</t>
